--- a/data/pca/factorExposure/factorExposure_2016-09-14.xlsx
+++ b/data/pca/factorExposure/factorExposure_2016-09-14.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="106">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="108">
   <si>
     <t>factor1</t>
   </si>
@@ -23,6 +23,12 @@
   </si>
   <si>
     <t>factor3</t>
+  </si>
+  <si>
+    <t>factor4</t>
+  </si>
+  <si>
+    <t>factor5</t>
   </si>
   <si>
     <t>Constellation software inc/can</t>
@@ -689,13 +695,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D104"/>
+  <dimension ref="A1:F104"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:6">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -705,52 +711,76 @@
       <c r="D1" s="1" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="2" spans="1:4">
+      <c r="E1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6">
       <c r="A2" s="1" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="B2">
-        <v>-0.008569166032577086</v>
+        <v>0.01339470028791944</v>
       </c>
       <c r="C2">
-        <v>0.05271226256386227</v>
+        <v>0.04327585036665656</v>
       </c>
       <c r="D2">
-        <v>-0.03570176106363553</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4">
+        <v>0.06708223044793353</v>
+      </c>
+      <c r="E2">
+        <v>-0.05235938588036045</v>
+      </c>
+      <c r="F2">
+        <v>-0.08438551845331924</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6">
       <c r="A3" s="1" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="B3">
-        <v>-0.05717145463811203</v>
+        <v>0.03213295258463988</v>
       </c>
       <c r="C3">
-        <v>0.09969366848631177</v>
+        <v>0.080323008776903</v>
       </c>
       <c r="D3">
-        <v>-0.06658459355438937</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4">
+        <v>0.09550541805718533</v>
+      </c>
+      <c r="E3">
+        <v>-0.0613498427334537</v>
+      </c>
+      <c r="F3">
+        <v>-0.01392944174775023</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6">
       <c r="A4" s="1" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="B4">
-        <v>-0.06162774538597196</v>
+        <v>0.05739027210026923</v>
       </c>
       <c r="C4">
-        <v>0.05901275143197834</v>
+        <v>0.06601164099081493</v>
       </c>
       <c r="D4">
-        <v>-0.02778885501918004</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4">
+        <v>0.06188268565193301</v>
+      </c>
+      <c r="E4">
+        <v>-0.05113416021213033</v>
+      </c>
+      <c r="F4">
+        <v>-0.08680001728348653</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6">
       <c r="A5" s="1" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="B5">
         <v>0</v>
@@ -761,164 +791,236 @@
       <c r="D5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:4">
+      <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6">
       <c r="A6" s="1" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="B6">
-        <v>-0.03515510550703402</v>
+        <v>0.0335816454836283</v>
       </c>
       <c r="C6">
-        <v>0.03824167484264594</v>
+        <v>0.03532630570315278</v>
       </c>
       <c r="D6">
-        <v>-0.03188321530608957</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4">
+        <v>0.07008947890663401</v>
+      </c>
+      <c r="E6">
+        <v>-0.05877279164203612</v>
+      </c>
+      <c r="F6">
+        <v>-0.07073673754016348</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6">
       <c r="A7" s="1" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="B7">
-        <v>-0.01896266410799599</v>
+        <v>0.01925917720154718</v>
       </c>
       <c r="C7">
-        <v>0.03727533822351294</v>
+        <v>0.03690616274867015</v>
       </c>
       <c r="D7">
-        <v>0.001406413374712162</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4">
+        <v>0.03969420842788696</v>
+      </c>
+      <c r="E7">
+        <v>-0.03236842661795027</v>
+      </c>
+      <c r="F7">
+        <v>-0.1077610460787726</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6">
       <c r="A8" s="1" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="B8">
-        <v>0.001415358535298311</v>
+        <v>0.003710851454238842</v>
       </c>
       <c r="C8">
-        <v>0.02235860809165161</v>
+        <v>0.02769620688668946</v>
       </c>
       <c r="D8">
-        <v>-0.03308782489708637</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4">
+        <v>0.03642261332887194</v>
+      </c>
+      <c r="E8">
+        <v>-0.04123715884136102</v>
+      </c>
+      <c r="F8">
+        <v>-0.05153034253567822</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6">
       <c r="A9" s="1" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="B9">
-        <v>-0.03209111876563448</v>
+        <v>0.0366476928310881</v>
       </c>
       <c r="C9">
-        <v>0.04134269183677657</v>
+        <v>0.05192273867808141</v>
       </c>
       <c r="D9">
-        <v>-0.01639037510688153</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4">
+        <v>0.04781561801704209</v>
+      </c>
+      <c r="E9">
+        <v>-0.04448714324873275</v>
+      </c>
+      <c r="F9">
+        <v>-0.09137882504073951</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6">
       <c r="A10" s="1" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="B10">
-        <v>-0.07515143427763996</v>
+        <v>0.1014989307073981</v>
       </c>
       <c r="C10">
-        <v>-0.19323346537609</v>
+        <v>-0.1916030430225215</v>
       </c>
       <c r="D10">
-        <v>-0.007530682297792189</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4">
+        <v>0.0005808200629216575</v>
+      </c>
+      <c r="E10">
+        <v>-0.04612729390726383</v>
+      </c>
+      <c r="F10">
+        <v>-0.03936258302865535</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6">
       <c r="A11" s="1" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="B11">
-        <v>-0.03615949809417952</v>
+        <v>0.03517641206779719</v>
       </c>
       <c r="C11">
-        <v>0.05459660003381887</v>
+        <v>0.0511762320378467</v>
       </c>
       <c r="D11">
-        <v>-0.007619840960086765</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4">
+        <v>0.03501795370489868</v>
+      </c>
+      <c r="E11">
+        <v>-0.005112235164963319</v>
+      </c>
+      <c r="F11">
+        <v>-0.06443696369202241</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6">
       <c r="A12" s="1" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="B12">
-        <v>-0.03342402842935044</v>
+        <v>0.03585400352110363</v>
       </c>
       <c r="C12">
-        <v>0.04717786649038387</v>
+        <v>0.04739460758450901</v>
       </c>
       <c r="D12">
-        <v>-0.003715031271108352</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4">
+        <v>0.02660422969670883</v>
+      </c>
+      <c r="E12">
+        <v>-0.01448177557028147</v>
+      </c>
+      <c r="F12">
+        <v>-0.06630349883099201</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6">
       <c r="A13" s="1" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="B13">
-        <v>-0.01345103211667655</v>
+        <v>0.01202288967507323</v>
       </c>
       <c r="C13">
-        <v>0.04046361647199705</v>
+        <v>0.04025715508424611</v>
       </c>
       <c r="D13">
-        <v>-0.02106389288935099</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4">
+        <v>0.06630042219485784</v>
+      </c>
+      <c r="E13">
+        <v>-0.06290561601659964</v>
+      </c>
+      <c r="F13">
+        <v>-0.1137782817039538</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6">
       <c r="A14" s="1" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="B14">
-        <v>-0.006371943056831994</v>
+        <v>0.005518738377901362</v>
       </c>
       <c r="C14">
-        <v>0.03154875412703051</v>
+        <v>0.02959102608395255</v>
       </c>
       <c r="D14">
-        <v>0.01415049466924015</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4">
+        <v>0.03070528912927267</v>
+      </c>
+      <c r="E14">
+        <v>-0.02768286059327141</v>
+      </c>
+      <c r="F14">
+        <v>-0.09769569890167216</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6">
       <c r="A15" s="1" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="B15">
-        <v>0</v>
+        <v>-0.00137675741292629</v>
       </c>
       <c r="C15">
-        <v>0</v>
+        <v>0.002997919312588426</v>
       </c>
       <c r="D15">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4">
+        <v>0.003622161571465964</v>
+      </c>
+      <c r="E15">
+        <v>-0.0002888392779811114</v>
+      </c>
+      <c r="F15">
+        <v>-0.002661939174597059</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6">
       <c r="A16" s="1" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="B16">
-        <v>-0.03306000953387241</v>
+        <v>0.03283297189237373</v>
       </c>
       <c r="C16">
-        <v>0.04275549508309995</v>
+        <v>0.04556328266404956</v>
       </c>
       <c r="D16">
-        <v>-0.008985646329214792</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4">
+        <v>0.03015363038026604</v>
+      </c>
+      <c r="E16">
+        <v>-0.01988173841078453</v>
+      </c>
+      <c r="F16">
+        <v>-0.06873301800396323</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6">
       <c r="A17" s="1" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="B17">
         <v>0</v>
@@ -929,10 +1031,16 @@
       <c r="D17">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:4">
+      <c r="E17">
+        <v>0</v>
+      </c>
+      <c r="F17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6">
       <c r="A18" s="1" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="B18">
         <v>0</v>
@@ -943,122 +1051,176 @@
       <c r="D18">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:4">
+      <c r="E18">
+        <v>0</v>
+      </c>
+      <c r="F18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6">
       <c r="A19" s="1" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="B19">
-        <v>-0.0229933928734187</v>
+        <v>0.0162803441243767</v>
       </c>
       <c r="C19">
-        <v>0.05829204581387447</v>
+        <v>0.04978317417345202</v>
       </c>
       <c r="D19">
-        <v>-0.07504057083010589</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4">
+        <v>0.1008744150391652</v>
+      </c>
+      <c r="E19">
+        <v>-0.07961866204235464</v>
+      </c>
+      <c r="F19">
+        <v>-0.09240276459848608</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6">
       <c r="A20" s="1" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="B20">
-        <v>-0.01428825440300508</v>
+        <v>0.01348312552893688</v>
       </c>
       <c r="C20">
-        <v>0.04185282988847973</v>
+        <v>0.04029242773005603</v>
       </c>
       <c r="D20">
-        <v>-0.02153687312409118</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4">
+        <v>0.0436754697399525</v>
+      </c>
+      <c r="E20">
+        <v>-0.05756575325084497</v>
+      </c>
+      <c r="F20">
+        <v>-0.08956048636775572</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6">
       <c r="A21" s="1" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="B21">
-        <v>-0.009212271089248349</v>
+        <v>0.008045913485958249</v>
       </c>
       <c r="C21">
-        <v>0.04806160346192861</v>
+        <v>0.04491645789300073</v>
       </c>
       <c r="D21">
-        <v>-0.03697953679292842</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4">
+        <v>0.07301413099636107</v>
+      </c>
+      <c r="E21">
+        <v>-0.07434030895071612</v>
+      </c>
+      <c r="F21">
+        <v>-0.1329877856322796</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6">
       <c r="A22" s="1" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="B22">
-        <v>0</v>
+        <v>0.0007328473038922731</v>
       </c>
       <c r="C22">
-        <v>0</v>
+        <v>0.02279173236823265</v>
       </c>
       <c r="D22">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4">
+        <v>0.03519148892374478</v>
+      </c>
+      <c r="E22">
+        <v>-0.01754439019174346</v>
+      </c>
+      <c r="F22">
+        <v>-0.01783259573339888</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6">
       <c r="A23" s="1" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="B23">
-        <v>0</v>
+        <v>0.0007987119868633974</v>
       </c>
       <c r="C23">
-        <v>0</v>
+        <v>0.02291822558727427</v>
       </c>
       <c r="D23">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4">
+        <v>0.03487933932429303</v>
+      </c>
+      <c r="E23">
+        <v>-0.01783544654550474</v>
+      </c>
+      <c r="F23">
+        <v>-0.01769965847135001</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6">
       <c r="A24" s="1" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="B24">
-        <v>-0.02794811627186518</v>
+        <v>0.03210708387833538</v>
       </c>
       <c r="C24">
-        <v>0.04773503408438765</v>
+        <v>0.05334260368821724</v>
       </c>
       <c r="D24">
-        <v>-0.005148843529717494</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4">
+        <v>0.02824750587858503</v>
+      </c>
+      <c r="E24">
+        <v>-0.01749391307167781</v>
+      </c>
+      <c r="F24">
+        <v>-0.07645199557742602</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6">
       <c r="A25" s="1" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="B25">
-        <v>-0.04176925416829037</v>
+        <v>0.04206052291963287</v>
       </c>
       <c r="C25">
-        <v>0.05960695538205972</v>
+        <v>0.05771400320638911</v>
       </c>
       <c r="D25">
-        <v>0.004686951231522678</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4">
+        <v>0.02626433089131883</v>
+      </c>
+      <c r="E25">
+        <v>-0.01205304762170589</v>
+      </c>
+      <c r="F25">
+        <v>-0.07841114920650057</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6">
       <c r="A26" s="1" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="B26">
-        <v>-0.01232472492455166</v>
+        <v>0.01342041162577115</v>
       </c>
       <c r="C26">
-        <v>0.01648936598826874</v>
+        <v>0.01614484301497511</v>
       </c>
       <c r="D26">
-        <v>-0.001884263465710035</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4">
+        <v>0.02803031905320584</v>
+      </c>
+      <c r="E26">
+        <v>-0.02926237598548593</v>
+      </c>
+      <c r="F26">
+        <v>-0.07307274910310066</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6">
       <c r="A27" s="1" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="B27">
         <v>0</v>
@@ -1069,108 +1231,156 @@
       <c r="D27">
         <v>0</v>
       </c>
-    </row>
-    <row r="28" spans="1:4">
+      <c r="E27">
+        <v>0</v>
+      </c>
+      <c r="F27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6">
       <c r="A28" s="1" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="B28">
-        <v>-0.08906777182772914</v>
+        <v>0.1362691856420138</v>
       </c>
       <c r="C28">
-        <v>-0.2258322683667703</v>
+        <v>-0.2414691296983764</v>
       </c>
       <c r="D28">
-        <v>-0.003915312865997877</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4">
+        <v>-0.01538745637285982</v>
+      </c>
+      <c r="E28">
+        <v>-0.04824141635264016</v>
+      </c>
+      <c r="F28">
+        <v>-0.05295194254792847</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6">
       <c r="A29" s="1" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="B29">
-        <v>-0.008481944926265941</v>
+        <v>0.006380229528254874</v>
       </c>
       <c r="C29">
-        <v>0.02569488638748016</v>
+        <v>0.02546915737626927</v>
       </c>
       <c r="D29">
-        <v>0.01444459651097705</v>
-      </c>
-    </row>
-    <row r="30" spans="1:4">
+        <v>0.02482277301157113</v>
+      </c>
+      <c r="E29">
+        <v>-0.02984370576175244</v>
+      </c>
+      <c r="F29">
+        <v>-0.08942505703504633</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6">
       <c r="A30" s="1" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="B30">
-        <v>-0.05037723919042085</v>
+        <v>0.04068676553725416</v>
       </c>
       <c r="C30">
-        <v>0.05692211774551747</v>
+        <v>0.06409053744862586</v>
       </c>
       <c r="D30">
-        <v>-0.05144952132229096</v>
-      </c>
-    </row>
-    <row r="31" spans="1:4">
+        <v>0.1095460095806299</v>
+      </c>
+      <c r="E30">
+        <v>-0.04037532688693919</v>
+      </c>
+      <c r="F30">
+        <v>-0.10153990077536</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6">
       <c r="A31" s="1" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="B31">
-        <v>-0.04927120954860555</v>
+        <v>0.05446503920697344</v>
       </c>
       <c r="C31">
-        <v>0.03301402457441936</v>
+        <v>0.05369677542701858</v>
       </c>
       <c r="D31">
-        <v>0.008555628718977908</v>
-      </c>
-    </row>
-    <row r="32" spans="1:4">
+        <v>-0.006180975872796005</v>
+      </c>
+      <c r="E31">
+        <v>-0.04936469397942524</v>
+      </c>
+      <c r="F31">
+        <v>-0.08093494830878567</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6">
       <c r="A32" s="1" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="B32">
-        <v>0.006713780815439528</v>
+        <v>0.00458286127381907</v>
       </c>
       <c r="C32">
-        <v>0.04616607920436502</v>
+        <v>0.03283690620233322</v>
       </c>
       <c r="D32">
-        <v>-0.02336605198959151</v>
-      </c>
-    </row>
-    <row r="33" spans="1:4">
+        <v>0.05112466682100766</v>
+      </c>
+      <c r="E32">
+        <v>-0.02339190203305374</v>
+      </c>
+      <c r="F32">
+        <v>-0.0731378728690118</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6">
       <c r="A33" s="1" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="B33">
-        <v>-0.0271622759750864</v>
+        <v>0.02418550661135973</v>
       </c>
       <c r="C33">
-        <v>0.05779691226297237</v>
+        <v>0.05383615472174839</v>
       </c>
       <c r="D33">
-        <v>-0.03501392590472983</v>
-      </c>
-    </row>
-    <row r="34" spans="1:4">
+        <v>0.08480661498359311</v>
+      </c>
+      <c r="E33">
+        <v>-0.05089435094018963</v>
+      </c>
+      <c r="F33">
+        <v>-0.1273787443095577</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6">
       <c r="A34" s="1" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="B34">
-        <v>-0.04304691683244219</v>
+        <v>0.04035700026641367</v>
       </c>
       <c r="C34">
-        <v>0.06048931434048105</v>
+        <v>0.06344149048059754</v>
       </c>
       <c r="D34">
-        <v>0.002050419770247072</v>
-      </c>
-    </row>
-    <row r="35" spans="1:4">
+        <v>0.03517021190090872</v>
+      </c>
+      <c r="E34">
+        <v>0.00656298045113671</v>
+      </c>
+      <c r="F34">
+        <v>-0.07518837030156941</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6">
       <c r="A35" s="1" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="B35">
         <v>0</v>
@@ -1181,24 +1391,36 @@
       <c r="D35">
         <v>0</v>
       </c>
-    </row>
-    <row r="36" spans="1:4">
+      <c r="E35">
+        <v>0</v>
+      </c>
+      <c r="F35">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6">
       <c r="A36" s="1" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="B36">
-        <v>-0.009476256177276869</v>
+        <v>0.01378152825314721</v>
       </c>
       <c r="C36">
-        <v>0.01320214046827676</v>
+        <v>0.01188173016746299</v>
       </c>
       <c r="D36">
-        <v>-0.003124226702557162</v>
-      </c>
-    </row>
-    <row r="37" spans="1:4">
+        <v>0.03014091327232038</v>
+      </c>
+      <c r="E36">
+        <v>-0.03625693155724845</v>
+      </c>
+      <c r="F36">
+        <v>-0.08183158848248612</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6">
       <c r="A37" s="1" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="B37">
         <v>0</v>
@@ -1209,108 +1431,156 @@
       <c r="D37">
         <v>0</v>
       </c>
-    </row>
-    <row r="38" spans="1:4">
+      <c r="E37">
+        <v>0</v>
+      </c>
+      <c r="F37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6">
       <c r="A38" s="1" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="B38">
-        <v>-0.03009168479482712</v>
+        <v>0.02481188194071049</v>
       </c>
       <c r="C38">
-        <v>0.02905005164533793</v>
+        <v>0.0248462636116908</v>
       </c>
       <c r="D38">
-        <v>-0.002646558013093667</v>
-      </c>
-    </row>
-    <row r="39" spans="1:4">
+        <v>0.02891920066808733</v>
+      </c>
+      <c r="E38">
+        <v>-0.03484974980672605</v>
+      </c>
+      <c r="F38">
+        <v>-0.06696864908034805</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6">
       <c r="A39" s="1" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="B39">
-        <v>-0.03920032433531255</v>
+        <v>0.03794927638375725</v>
       </c>
       <c r="C39">
-        <v>0.07009645409746708</v>
+        <v>0.06831658946564016</v>
       </c>
       <c r="D39">
-        <v>-0.02332556144644806</v>
-      </c>
-    </row>
-    <row r="40" spans="1:4">
+        <v>0.05407706546330758</v>
+      </c>
+      <c r="E39">
+        <v>-0.01842655387468448</v>
+      </c>
+      <c r="F39">
+        <v>-0.09037437382370071</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6">
       <c r="A40" s="1" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="B40">
-        <v>-0.01773466298016321</v>
+        <v>0.01693896508568999</v>
       </c>
       <c r="C40">
-        <v>0.03065319553537475</v>
+        <v>0.037278551420117</v>
       </c>
       <c r="D40">
-        <v>-0.03755745462206377</v>
-      </c>
-    </row>
-    <row r="41" spans="1:4">
+        <v>0.04382132225089119</v>
+      </c>
+      <c r="E40">
+        <v>-0.0742879967123681</v>
+      </c>
+      <c r="F40">
+        <v>-0.08862862198775429</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6">
       <c r="A41" s="1" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="B41">
-        <v>-0.008681523935880519</v>
+        <v>0.01793775117144523</v>
       </c>
       <c r="C41">
-        <v>0.007131717784174135</v>
+        <v>0.006199556320537009</v>
       </c>
       <c r="D41">
-        <v>-0.001881117732998147</v>
-      </c>
-    </row>
-    <row r="42" spans="1:4">
+        <v>0.01885902936496942</v>
+      </c>
+      <c r="E41">
+        <v>-0.03851451127059776</v>
+      </c>
+      <c r="F41">
+        <v>-0.07048195673006415</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6">
       <c r="A42" s="1" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="B42">
-        <v>-0.00220678090063121</v>
+        <v>0.001440347312675145</v>
       </c>
       <c r="C42">
-        <v>0.004848697421585445</v>
+        <v>0.002625033968618401</v>
       </c>
       <c r="D42">
-        <v>-0.008994328163296752</v>
-      </c>
-    </row>
-    <row r="43" spans="1:4">
+        <v>0.001526020837813182</v>
+      </c>
+      <c r="E42">
+        <v>-0.008079754209707324</v>
+      </c>
+      <c r="F42">
+        <v>0.006295284789024415</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6">
       <c r="A43" s="1" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="B43">
-        <v>-0.03124328560179553</v>
+        <v>0.02930285254228111</v>
       </c>
       <c r="C43">
-        <v>0.02246971896269026</v>
+        <v>0.02115663328069727</v>
       </c>
       <c r="D43">
-        <v>-0.01322130980574445</v>
-      </c>
-    </row>
-    <row r="44" spans="1:4">
+        <v>0.04325699697253451</v>
+      </c>
+      <c r="E43">
+        <v>-0.04398229269973636</v>
+      </c>
+      <c r="F43">
+        <v>-0.08366439465508504</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6">
       <c r="A44" s="1" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="B44">
-        <v>-0.01617367920223463</v>
+        <v>0.01451011885936649</v>
       </c>
       <c r="C44">
-        <v>0.05626836760354725</v>
+        <v>0.05186038388409762</v>
       </c>
       <c r="D44">
-        <v>-0.01825770446939051</v>
-      </c>
-    </row>
-    <row r="45" spans="1:4">
+        <v>0.04213103167417335</v>
+      </c>
+      <c r="E44">
+        <v>-0.05832712954694341</v>
+      </c>
+      <c r="F44">
+        <v>-0.09097949121913042</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6">
       <c r="A45" s="1" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="B45">
         <v>0</v>
@@ -1321,52 +1591,76 @@
       <c r="D45">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="1:4">
+      <c r="E45">
+        <v>0</v>
+      </c>
+      <c r="F45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6">
       <c r="A46" s="1" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="B46">
-        <v>-0.0001090790427700245</v>
+        <v>0.007435189998164544</v>
       </c>
       <c r="C46">
-        <v>0.02261243502704369</v>
+        <v>0.02515487403365835</v>
       </c>
       <c r="D46">
-        <v>0.01816383593645238</v>
-      </c>
-    </row>
-    <row r="47" spans="1:4">
+        <v>0.01516962223726401</v>
+      </c>
+      <c r="E46">
+        <v>-0.03588696688568147</v>
+      </c>
+      <c r="F46">
+        <v>-0.1036227967850716</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6">
       <c r="A47" s="1" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="B47">
-        <v>-0.07994258229286851</v>
+        <v>0.0856765674878454</v>
       </c>
       <c r="C47">
-        <v>0.07173852922128109</v>
+        <v>0.0806715082795606</v>
       </c>
       <c r="D47">
-        <v>0.005049181001031648</v>
-      </c>
-    </row>
-    <row r="48" spans="1:4">
+        <v>-0.01496247547124054</v>
+      </c>
+      <c r="E47">
+        <v>-0.05504094401568035</v>
+      </c>
+      <c r="F47">
+        <v>-0.07754184998317862</v>
+      </c>
+    </row>
+    <row r="48" spans="1:6">
       <c r="A48" s="1" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="B48">
-        <v>-0.01788865929611326</v>
+        <v>0.01568579563943666</v>
       </c>
       <c r="C48">
-        <v>0.01189653342444591</v>
+        <v>0.01716350097128005</v>
       </c>
       <c r="D48">
-        <v>0.005161011216142584</v>
-      </c>
-    </row>
-    <row r="49" spans="1:4">
+        <v>0.02052214626936998</v>
+      </c>
+      <c r="E48">
+        <v>-0.04641077902899683</v>
+      </c>
+      <c r="F48">
+        <v>-0.09552194856197944</v>
+      </c>
+    </row>
+    <row r="49" spans="1:6">
       <c r="A49" s="1" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="B49">
         <v>0</v>
@@ -1377,38 +1671,56 @@
       <c r="D49">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="1:4">
+      <c r="E49">
+        <v>0</v>
+      </c>
+      <c r="F49">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:6">
       <c r="A50" s="1" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="B50">
-        <v>-0.08615933247816659</v>
+        <v>0.07253879834969304</v>
       </c>
       <c r="C50">
-        <v>0.06929187993982243</v>
+        <v>0.07052130771943366</v>
       </c>
       <c r="D50">
-        <v>0.01518448380182409</v>
-      </c>
-    </row>
-    <row r="51" spans="1:4">
+        <v>-0.002667931167303175</v>
+      </c>
+      <c r="E50">
+        <v>-0.05288878195291195</v>
+      </c>
+      <c r="F50">
+        <v>-0.06850368446317406</v>
+      </c>
+    </row>
+    <row r="51" spans="1:6">
       <c r="A51" s="1" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="B51">
-        <v>-0.01091693143797929</v>
+        <v>0.01043792703470656</v>
       </c>
       <c r="C51">
-        <v>0.04373297538760942</v>
+        <v>0.03332609385064621</v>
       </c>
       <c r="D51">
-        <v>-0.009237298929519159</v>
-      </c>
-    </row>
-    <row r="52" spans="1:4">
+        <v>0.05063361900555923</v>
+      </c>
+      <c r="E51">
+        <v>-0.02173268508960964</v>
+      </c>
+      <c r="F51">
+        <v>-0.08554085106061579</v>
+      </c>
+    </row>
+    <row r="52" spans="1:6">
       <c r="A52" s="1" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="B52">
         <v>0</v>
@@ -1419,136 +1731,196 @@
       <c r="D52">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="1:4">
+      <c r="E52">
+        <v>0</v>
+      </c>
+      <c r="F52">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:6">
       <c r="A53" s="1" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="B53">
-        <v>-0.0806034780559642</v>
+        <v>0.09176290603744242</v>
       </c>
       <c r="C53">
-        <v>0.07345725246298669</v>
+        <v>0.08845736196416581</v>
       </c>
       <c r="D53">
-        <v>0.02447563106471492</v>
-      </c>
-    </row>
-    <row r="54" spans="1:4">
+        <v>-0.03697787517323867</v>
+      </c>
+      <c r="E53">
+        <v>-0.05443853356423949</v>
+      </c>
+      <c r="F53">
+        <v>-0.08790135462136646</v>
+      </c>
+    </row>
+    <row r="54" spans="1:6">
       <c r="A54" s="1" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="B54">
-        <v>-0.03086496096890816</v>
+        <v>0.02707436090396276</v>
       </c>
       <c r="C54">
-        <v>0.02157450661399956</v>
+        <v>0.0264425330456432</v>
       </c>
       <c r="D54">
-        <v>-0.002637914123261633</v>
-      </c>
-    </row>
-    <row r="55" spans="1:4">
+        <v>0.03389290096019552</v>
+      </c>
+      <c r="E54">
+        <v>-0.0397070376905334</v>
+      </c>
+      <c r="F54">
+        <v>-0.09270426127900158</v>
+      </c>
+    </row>
+    <row r="55" spans="1:6">
       <c r="A55" s="1" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="B55">
-        <v>-0.07095985760988921</v>
+        <v>0.08278852016332885</v>
       </c>
       <c r="C55">
-        <v>0.06535866633572192</v>
+        <v>0.07224153974805715</v>
       </c>
       <c r="D55">
-        <v>0.02788189320818625</v>
-      </c>
-    </row>
-    <row r="56" spans="1:4">
+        <v>-0.04433842970332332</v>
+      </c>
+      <c r="E55">
+        <v>-0.0449332545234988</v>
+      </c>
+      <c r="F55">
+        <v>-0.06441946843278794</v>
+      </c>
+    </row>
+    <row r="56" spans="1:6">
       <c r="A56" s="1" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="B56">
-        <v>-0.1471517824456759</v>
+        <v>0.1446178063608169</v>
       </c>
       <c r="C56">
-        <v>0.09326739267023262</v>
+        <v>0.1069163499272633</v>
       </c>
       <c r="D56">
-        <v>0.03108691439980644</v>
-      </c>
-    </row>
-    <row r="57" spans="1:4">
+        <v>-0.04786145721963047</v>
+      </c>
+      <c r="E56">
+        <v>-0.04958758583487616</v>
+      </c>
+      <c r="F56">
+        <v>-0.05118700892612968</v>
+      </c>
+    </row>
+    <row r="57" spans="1:6">
       <c r="A57" s="1" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="B57">
-        <v>-0.001514878172965347</v>
+        <v>0.0005331020065364351</v>
       </c>
       <c r="C57">
-        <v>0.003797245081894741</v>
+        <v>0.002186411671807999</v>
       </c>
       <c r="D57">
-        <v>-0.01803316994854189</v>
-      </c>
-    </row>
-    <row r="58" spans="1:4">
+        <v>0.01616611920617942</v>
+      </c>
+      <c r="E57">
+        <v>-0.007079687236945486</v>
+      </c>
+      <c r="F57">
+        <v>-0.01019922633721933</v>
+      </c>
+    </row>
+    <row r="58" spans="1:6">
       <c r="A58" s="1" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="B58">
-        <v>-0.07465043360379095</v>
+        <v>0.03064114918189923</v>
       </c>
       <c r="C58">
-        <v>0.025460155812478</v>
+        <v>0.03995831527586739</v>
       </c>
       <c r="D58">
-        <v>-0.938851312836707</v>
-      </c>
-    </row>
-    <row r="59" spans="1:4">
+        <v>0.4938924986078046</v>
+      </c>
+      <c r="E58">
+        <v>-0.672477800421703</v>
+      </c>
+      <c r="F58">
+        <v>0.4707824184690381</v>
+      </c>
+    </row>
+    <row r="59" spans="1:6">
       <c r="A59" s="1" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="B59">
-        <v>-0.1374783449657568</v>
+        <v>0.1486403897516107</v>
       </c>
       <c r="C59">
-        <v>-0.2052888797140011</v>
+        <v>-0.1858612034188348</v>
       </c>
       <c r="D59">
-        <v>-0.01626127993226893</v>
-      </c>
-    </row>
-    <row r="60" spans="1:4">
+        <v>0.03134959462423968</v>
+      </c>
+      <c r="E59">
+        <v>-0.02538282851342798</v>
+      </c>
+      <c r="F59">
+        <v>-0.02063723424307631</v>
+      </c>
+    </row>
+    <row r="60" spans="1:6">
       <c r="A60" s="1" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="B60">
-        <v>-0.3120914008546485</v>
+        <v>0.2816775909403352</v>
       </c>
       <c r="C60">
-        <v>0.09472914294057712</v>
+        <v>0.09857570277527915</v>
       </c>
       <c r="D60">
-        <v>-0.002007274475371891</v>
-      </c>
-    </row>
-    <row r="61" spans="1:4">
+        <v>0.1997325750138227</v>
+      </c>
+      <c r="E60">
+        <v>0.2823098105925348</v>
+      </c>
+      <c r="F60">
+        <v>0.1146846761593368</v>
+      </c>
+    </row>
+    <row r="61" spans="1:6">
       <c r="A61" s="1" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="B61">
-        <v>-0.03676851282313185</v>
+        <v>0.03965405315680332</v>
       </c>
       <c r="C61">
-        <v>0.06377221277266322</v>
+        <v>0.06209941728361783</v>
       </c>
       <c r="D61">
-        <v>-0.01299743269708628</v>
-      </c>
-    </row>
-    <row r="62" spans="1:4">
+        <v>0.04819456511883838</v>
+      </c>
+      <c r="E61">
+        <v>-0.02246370359212482</v>
+      </c>
+      <c r="F61">
+        <v>-0.08035168023415155</v>
+      </c>
+    </row>
+    <row r="62" spans="1:6">
       <c r="A62" s="1" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="B62">
         <v>0</v>
@@ -1559,108 +1931,156 @@
       <c r="D62">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="1:4">
+      <c r="E62">
+        <v>0</v>
+      </c>
+      <c r="F62">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="1:6">
       <c r="A63" s="1" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="B63">
-        <v>-0.01406560831969504</v>
+        <v>0.01471699108979453</v>
       </c>
       <c r="C63">
-        <v>0.03560057861840495</v>
+        <v>0.03204121445291281</v>
       </c>
       <c r="D63">
-        <v>-0.0007591502229186702</v>
-      </c>
-    </row>
-    <row r="64" spans="1:4">
+        <v>0.02491246840980609</v>
+      </c>
+      <c r="E63">
+        <v>-0.03881967277949323</v>
+      </c>
+      <c r="F63">
+        <v>-0.07467926963595105</v>
+      </c>
+    </row>
+    <row r="64" spans="1:6">
       <c r="A64" s="1" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="B64">
-        <v>-0.05153228033472995</v>
+        <v>0.05528380056559836</v>
       </c>
       <c r="C64">
-        <v>0.03489453948196664</v>
+        <v>0.05442095318601745</v>
       </c>
       <c r="D64">
-        <v>0.005912015119218459</v>
-      </c>
-    </row>
-    <row r="65" spans="1:4">
+        <v>0.008640153083955058</v>
+      </c>
+      <c r="E64">
+        <v>-0.02192858779191651</v>
+      </c>
+      <c r="F64">
+        <v>-0.08754578062144758</v>
+      </c>
+    </row>
+    <row r="65" spans="1:6">
       <c r="A65" s="1" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="B65">
-        <v>-0.09417105625408018</v>
+        <v>0.06689949522443785</v>
       </c>
       <c r="C65">
-        <v>0.04068645725077218</v>
+        <v>0.03880031298481793</v>
       </c>
       <c r="D65">
-        <v>-0.03915382350835789</v>
-      </c>
-    </row>
-    <row r="66" spans="1:4">
+        <v>0.08695197409623026</v>
+      </c>
+      <c r="E65">
+        <v>-0.03187557536831817</v>
+      </c>
+      <c r="F65">
+        <v>-0.02345423503702801</v>
+      </c>
+    </row>
+    <row r="66" spans="1:6">
       <c r="A66" s="1" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="B66">
-        <v>-0.05920432190517397</v>
+        <v>0.04997261646399814</v>
       </c>
       <c r="C66">
-        <v>0.1043238094860704</v>
+        <v>0.09148984679819298</v>
       </c>
       <c r="D66">
-        <v>-0.03411295249260729</v>
-      </c>
-    </row>
-    <row r="67" spans="1:4">
+        <v>0.08093461453183994</v>
+      </c>
+      <c r="E66">
+        <v>-0.01999162522835747</v>
+      </c>
+      <c r="F66">
+        <v>-0.09101405744394625</v>
+      </c>
+    </row>
+    <row r="67" spans="1:6">
       <c r="A67" s="1" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="B67">
-        <v>-0.05309968497160723</v>
+        <v>0.04731813816301716</v>
       </c>
       <c r="C67">
-        <v>0.0342432875116818</v>
+        <v>0.03059760433532137</v>
       </c>
       <c r="D67">
-        <v>0.003693216273180977</v>
-      </c>
-    </row>
-    <row r="68" spans="1:4">
+        <v>0.01505635711579879</v>
+      </c>
+      <c r="E67">
+        <v>-0.01833087609339816</v>
+      </c>
+      <c r="F67">
+        <v>-0.05234327372006223</v>
+      </c>
+    </row>
+    <row r="68" spans="1:6">
       <c r="A68" s="1" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="B68">
-        <v>-0.1169141229998176</v>
+        <v>0.1534414014569817</v>
       </c>
       <c r="C68">
-        <v>-0.288597329358326</v>
+        <v>-0.2501205031347234</v>
       </c>
       <c r="D68">
-        <v>0.001427667159512013</v>
-      </c>
-    </row>
-    <row r="69" spans="1:4">
+        <v>-0.01815165658681633</v>
+      </c>
+      <c r="E68">
+        <v>-0.04202302868102682</v>
+      </c>
+      <c r="F68">
+        <v>-0.01680773931554013</v>
+      </c>
+    </row>
+    <row r="69" spans="1:6">
       <c r="A69" s="1" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="B69">
-        <v>-0.08463074515023745</v>
+        <v>0.08684360301946693</v>
       </c>
       <c r="C69">
-        <v>0.06791276666500067</v>
+        <v>0.08678838764484781</v>
       </c>
       <c r="D69">
-        <v>0.02985567234801844</v>
-      </c>
-    </row>
-    <row r="70" spans="1:4">
+        <v>-0.00833428601184999</v>
+      </c>
+      <c r="E69">
+        <v>-0.03263428244534686</v>
+      </c>
+      <c r="F69">
+        <v>-0.09785802362646871</v>
+      </c>
+    </row>
+    <row r="70" spans="1:6">
       <c r="A70" s="1" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="B70">
         <v>0</v>
@@ -1671,192 +2091,276 @@
       <c r="D70">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="1:4">
+      <c r="E70">
+        <v>0</v>
+      </c>
+      <c r="F70">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="1:6">
       <c r="A71" s="1" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="B71">
-        <v>-0.1203829022602113</v>
+        <v>0.1459560459189019</v>
       </c>
       <c r="C71">
-        <v>-0.2498064711229626</v>
+        <v>-0.2313683759465771</v>
       </c>
       <c r="D71">
-        <v>-0.02592729547077323</v>
-      </c>
-    </row>
-    <row r="72" spans="1:4">
+        <v>0.015476581925016</v>
+      </c>
+      <c r="E71">
+        <v>-0.06039626774375993</v>
+      </c>
+      <c r="F71">
+        <v>-0.05524791270302554</v>
+      </c>
+    </row>
+    <row r="72" spans="1:6">
       <c r="A72" s="1" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="B72">
-        <v>-0.08544125458185038</v>
+        <v>0.09566138587860341</v>
       </c>
       <c r="C72">
-        <v>0.04981675205485634</v>
+        <v>0.05757763979361159</v>
       </c>
       <c r="D72">
-        <v>0.01088722867878591</v>
-      </c>
-    </row>
-    <row r="73" spans="1:4">
+        <v>0.0206529950351154</v>
+      </c>
+      <c r="E72">
+        <v>-0.01034712394865296</v>
+      </c>
+      <c r="F72">
+        <v>-0.08120551113149019</v>
+      </c>
+    </row>
+    <row r="73" spans="1:6">
       <c r="A73" s="1" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="B73">
-        <v>-0.4368300286741141</v>
+        <v>0.3463627441029903</v>
       </c>
       <c r="C73">
-        <v>0.06923186037949745</v>
+        <v>0.08012977188753125</v>
       </c>
       <c r="D73">
-        <v>-0.07251189194597665</v>
-      </c>
-    </row>
-    <row r="74" spans="1:4">
+        <v>0.4213368780467442</v>
+      </c>
+      <c r="E73">
+        <v>0.4950893057812849</v>
+      </c>
+      <c r="F73">
+        <v>0.2906074244623385</v>
+      </c>
+    </row>
+    <row r="74" spans="1:6">
       <c r="A74" s="1" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="B74">
-        <v>-0.110978925492578</v>
+        <v>0.1099270658336589</v>
       </c>
       <c r="C74">
-        <v>0.1104298511904765</v>
+        <v>0.1019835007409474</v>
       </c>
       <c r="D74">
-        <v>0.005054073628926825</v>
-      </c>
-    </row>
-    <row r="75" spans="1:4">
+        <v>-0.02777213921388855</v>
+      </c>
+      <c r="E74">
+        <v>-0.06367870572874144</v>
+      </c>
+      <c r="F74">
+        <v>-0.0544554915915561</v>
+      </c>
+    </row>
+    <row r="75" spans="1:6">
       <c r="A75" s="1" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="B75">
-        <v>-0.2483380195774973</v>
+        <v>0.2549417542006702</v>
       </c>
       <c r="C75">
-        <v>0.1229699567215171</v>
+        <v>0.1412073459227255</v>
       </c>
       <c r="D75">
-        <v>0.04609768340553448</v>
-      </c>
-    </row>
-    <row r="76" spans="1:4">
+        <v>-0.1286210234049466</v>
+      </c>
+      <c r="E75">
+        <v>-0.0768017790204043</v>
+      </c>
+      <c r="F75">
+        <v>-0.01934254696439972</v>
+      </c>
+    </row>
+    <row r="76" spans="1:6">
       <c r="A76" s="1" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="B76">
-        <v>-0.1110883503659744</v>
+        <v>0.1272078619663907</v>
       </c>
       <c r="C76">
-        <v>0.1003856856909996</v>
+        <v>0.1059091041785186</v>
       </c>
       <c r="D76">
-        <v>0.02813187075458316</v>
-      </c>
-    </row>
-    <row r="77" spans="1:4">
+        <v>-0.05751128136224139</v>
+      </c>
+      <c r="E76">
+        <v>-0.06920392239192691</v>
+      </c>
+      <c r="F76">
+        <v>-0.06701122502230564</v>
+      </c>
+    </row>
+    <row r="77" spans="1:6">
       <c r="A77" s="1" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="B77">
-        <v>-0.07719788720287625</v>
+        <v>0.0615951735332831</v>
       </c>
       <c r="C77">
-        <v>0.0589934587891103</v>
+        <v>0.06880861479662979</v>
       </c>
       <c r="D77">
-        <v>-0.05059283258971561</v>
-      </c>
-    </row>
-    <row r="78" spans="1:4">
+        <v>0.06661800438604593</v>
+      </c>
+      <c r="E77">
+        <v>-0.06719607613469632</v>
+      </c>
+      <c r="F77">
+        <v>-0.1121357033277946</v>
+      </c>
+    </row>
+    <row r="78" spans="1:6">
       <c r="A78" s="1" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="B78">
-        <v>-0.04461340491475591</v>
+        <v>0.04330863721626751</v>
       </c>
       <c r="C78">
-        <v>0.04211644791920399</v>
+        <v>0.05399587536858643</v>
       </c>
       <c r="D78">
-        <v>-0.01818120751393516</v>
-      </c>
-    </row>
-    <row r="79" spans="1:4">
+        <v>0.07435265366672765</v>
+      </c>
+      <c r="E78">
+        <v>-0.02271600763287692</v>
+      </c>
+      <c r="F78">
+        <v>-0.1050497679186703</v>
+      </c>
+    </row>
+    <row r="79" spans="1:6">
       <c r="A79" s="1" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="B79">
-        <v>0</v>
+        <v>0.02302972775998417</v>
       </c>
       <c r="C79">
-        <v>0</v>
+        <v>0.03957428594095326</v>
       </c>
       <c r="D79">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="80" spans="1:4">
+        <v>-0.05812034011206317</v>
+      </c>
+      <c r="E79">
+        <v>-0.05138912502814759</v>
+      </c>
+      <c r="F79">
+        <v>-0.03488869932910429</v>
+      </c>
+    </row>
+    <row r="80" spans="1:6">
       <c r="A80" s="1" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="B80">
-        <v>-0.04369251275103563</v>
+        <v>0.03369903006684852</v>
       </c>
       <c r="C80">
-        <v>0.05592385101297939</v>
+        <v>0.05479633607064419</v>
       </c>
       <c r="D80">
-        <v>-0.02581378442098861</v>
-      </c>
-    </row>
-    <row r="81" spans="1:4">
+        <v>0.04794412359886265</v>
+      </c>
+      <c r="E80">
+        <v>-0.008535171856794954</v>
+      </c>
+      <c r="F80">
+        <v>-0.03190285571537733</v>
+      </c>
+    </row>
+    <row r="81" spans="1:6">
       <c r="A81" s="1" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="B81">
-        <v>-0.1417399476433911</v>
+        <v>0.1392241434148608</v>
       </c>
       <c r="C81">
-        <v>0.07837190685127103</v>
+        <v>0.09899457409289313</v>
       </c>
       <c r="D81">
-        <v>0.02129667812468507</v>
-      </c>
-    </row>
-    <row r="82" spans="1:4">
+        <v>-0.09425130341476887</v>
+      </c>
+      <c r="E81">
+        <v>-0.0831455705587482</v>
+      </c>
+      <c r="F81">
+        <v>-0.02014702541131486</v>
+      </c>
+    </row>
+    <row r="82" spans="1:6">
       <c r="A82" s="1" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="B82">
-        <v>-0.1273089801690045</v>
+        <v>0.1947191276296703</v>
       </c>
       <c r="C82">
-        <v>0.05753155397886221</v>
+        <v>0.1399733925382243</v>
       </c>
       <c r="D82">
-        <v>0.1120362588936094</v>
-      </c>
-    </row>
-    <row r="83" spans="1:4">
+        <v>-0.2281325680491781</v>
+      </c>
+      <c r="E82">
+        <v>-0.01875171828287737</v>
+      </c>
+      <c r="F82">
+        <v>-0.08497295381438012</v>
+      </c>
+    </row>
+    <row r="83" spans="1:6">
       <c r="A83" s="1" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="B83">
-        <v>-0.02999273436562745</v>
+        <v>0.02622812855132083</v>
       </c>
       <c r="C83">
-        <v>0.01963202125732175</v>
+        <v>0.0400602909967331</v>
       </c>
       <c r="D83">
-        <v>-0.01653638095701721</v>
-      </c>
-    </row>
-    <row r="84" spans="1:4">
+        <v>0.03517795781874142</v>
+      </c>
+      <c r="E83">
+        <v>-0.007777431877528226</v>
+      </c>
+      <c r="F83">
+        <v>-0.04506535912300744</v>
+      </c>
+    </row>
+    <row r="84" spans="1:6">
       <c r="A84" s="1" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="B84">
         <v>0</v>
@@ -1867,164 +2371,236 @@
       <c r="D84">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="1:4">
+      <c r="E84">
+        <v>0</v>
+      </c>
+      <c r="F84">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="1:6">
       <c r="A85" s="1" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="B85">
-        <v>-0.2256790575200686</v>
+        <v>0.2034053781554399</v>
       </c>
       <c r="C85">
-        <v>0.1121809175881221</v>
+        <v>0.1252603731934412</v>
       </c>
       <c r="D85">
-        <v>0.09196325273385167</v>
-      </c>
-    </row>
-    <row r="86" spans="1:4">
+        <v>-0.1043172519623186</v>
+      </c>
+      <c r="E85">
+        <v>-0.006982680307908429</v>
+      </c>
+      <c r="F85">
+        <v>0.01864615699074687</v>
+      </c>
+    </row>
+    <row r="86" spans="1:6">
       <c r="A86" s="1" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="B86">
-        <v>-0.004081278185400505</v>
+        <v>0.01202303097671455</v>
       </c>
       <c r="C86">
-        <v>0.02327146377172333</v>
+        <v>0.03032526508096342</v>
       </c>
       <c r="D86">
-        <v>-0.02985315519873566</v>
-      </c>
-    </row>
-    <row r="87" spans="1:4">
+        <v>0.07409958042666506</v>
+      </c>
+      <c r="E86">
+        <v>-0.04397468787728009</v>
+      </c>
+      <c r="F86">
+        <v>-0.1385245564548247</v>
+      </c>
+    </row>
+    <row r="87" spans="1:6">
       <c r="A87" s="1" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="B87">
-        <v>-0.01833431692770764</v>
+        <v>0.01997505895872093</v>
       </c>
       <c r="C87">
-        <v>0.01716752469381429</v>
+        <v>0.02180709760222761</v>
       </c>
       <c r="D87">
-        <v>-0.09113909261361844</v>
-      </c>
-    </row>
-    <row r="88" spans="1:4">
+        <v>0.09394029673925054</v>
+      </c>
+      <c r="E87">
+        <v>-0.08590041272623868</v>
+      </c>
+      <c r="F87">
+        <v>-0.09117313205644603</v>
+      </c>
+    </row>
+    <row r="88" spans="1:6">
       <c r="A88" s="1" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="B88">
-        <v>-0.09977757565648911</v>
+        <v>0.0899292934606551</v>
       </c>
       <c r="C88">
-        <v>0.07370700343659094</v>
+        <v>0.0643378733588489</v>
       </c>
       <c r="D88">
-        <v>0.01833482570153889</v>
-      </c>
-    </row>
-    <row r="89" spans="1:4">
+        <v>0.01235858099102124</v>
+      </c>
+      <c r="E88">
+        <v>-0.03177626609174829</v>
+      </c>
+      <c r="F88">
+        <v>-0.06822300289116542</v>
+      </c>
+    </row>
+    <row r="89" spans="1:6">
       <c r="A89" s="1" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="B89">
-        <v>-0.1900999240705155</v>
+        <v>0.2288835469005292</v>
       </c>
       <c r="C89">
-        <v>-0.3713653204959226</v>
+        <v>-0.3783562701058354</v>
       </c>
       <c r="D89">
-        <v>0.02415132603074911</v>
-      </c>
-    </row>
-    <row r="90" spans="1:4">
+        <v>-0.01285074924670359</v>
+      </c>
+      <c r="E89">
+        <v>-0.04221019158502861</v>
+      </c>
+      <c r="F89">
+        <v>-0.1006581409954199</v>
+      </c>
+    </row>
+    <row r="90" spans="1:6">
       <c r="A90" s="1" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="B90">
-        <v>-0.1784399743326658</v>
+        <v>0.2054997188971889</v>
       </c>
       <c r="C90">
-        <v>-0.3400056727012319</v>
+        <v>-0.312667514765884</v>
       </c>
       <c r="D90">
-        <v>0.01131739711071477</v>
-      </c>
-    </row>
-    <row r="91" spans="1:4">
+        <v>-0.01238742456994145</v>
+      </c>
+      <c r="E90">
+        <v>-0.06659632134494348</v>
+      </c>
+      <c r="F90">
+        <v>-0.04788302764452663</v>
+      </c>
+    </row>
+    <row r="91" spans="1:6">
       <c r="A91" s="1" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="B91">
-        <v>-0.1977903182992187</v>
+        <v>0.1880990938981046</v>
       </c>
       <c r="C91">
-        <v>0.1168140546109458</v>
+        <v>0.1421016444843587</v>
       </c>
       <c r="D91">
-        <v>0.04559835386842107</v>
-      </c>
-    </row>
-    <row r="92" spans="1:4">
+        <v>-0.1017638413265723</v>
+      </c>
+      <c r="E91">
+        <v>-0.07263926136981359</v>
+      </c>
+      <c r="F91">
+        <v>-0.04139851721551639</v>
+      </c>
+    </row>
+    <row r="92" spans="1:6">
       <c r="A92" s="1" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="B92">
-        <v>-0.1720134744930328</v>
+        <v>0.1851822142257757</v>
       </c>
       <c r="C92">
-        <v>-0.2910963364961637</v>
+        <v>-0.2795657224338094</v>
       </c>
       <c r="D92">
-        <v>0.01107476243971244</v>
-      </c>
-    </row>
-    <row r="93" spans="1:4">
+        <v>-0.002684605511785244</v>
+      </c>
+      <c r="E92">
+        <v>-0.07086283934120081</v>
+      </c>
+      <c r="F92">
+        <v>-0.07388921976347769</v>
+      </c>
+    </row>
+    <row r="93" spans="1:6">
       <c r="A93" s="1" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="B93">
-        <v>-0.2045451316857744</v>
+        <v>0.2292727872043111</v>
       </c>
       <c r="C93">
-        <v>-0.336947265151711</v>
+        <v>-0.3178291136594419</v>
       </c>
       <c r="D93">
-        <v>-0.0005932907157965004</v>
-      </c>
-    </row>
-    <row r="94" spans="1:4">
+        <v>0.0004921280658334601</v>
+      </c>
+      <c r="E93">
+        <v>-0.05058367994740217</v>
+      </c>
+      <c r="F93">
+        <v>-0.04179465940217601</v>
+      </c>
+    </row>
+    <row r="94" spans="1:6">
       <c r="A94" s="1" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="B94">
-        <v>-0.3173999244881375</v>
+        <v>0.3392607411569067</v>
       </c>
       <c r="C94">
-        <v>0.174368228205849</v>
+        <v>0.1923512063742816</v>
       </c>
       <c r="D94">
-        <v>0.1886658233095793</v>
-      </c>
-    </row>
-    <row r="95" spans="1:4">
+        <v>-0.4745697266447625</v>
+      </c>
+      <c r="E94">
+        <v>-0.1493125251499848</v>
+      </c>
+      <c r="F94">
+        <v>0.4365331687049137</v>
+      </c>
+    </row>
+    <row r="95" spans="1:6">
       <c r="A95" s="1" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="B95">
-        <v>-0.0900222438918447</v>
+        <v>0.08229987305533989</v>
       </c>
       <c r="C95">
-        <v>0.06816684733795587</v>
+        <v>0.07131222506116502</v>
       </c>
       <c r="D95">
-        <v>-0.03250016714027051</v>
-      </c>
-    </row>
-    <row r="96" spans="1:4">
+        <v>0.1533321919357563</v>
+      </c>
+      <c r="E95">
+        <v>0.1300529356311111</v>
+      </c>
+      <c r="F95">
+        <v>-0.1878985552605948</v>
+      </c>
+    </row>
+    <row r="96" spans="1:6">
       <c r="A96" s="1" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="B96">
         <v>0</v>
@@ -2035,10 +2611,16 @@
       <c r="D96">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="1:4">
+      <c r="E96">
+        <v>0</v>
+      </c>
+      <c r="F96">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="1:6">
       <c r="A97" s="1" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="B97">
         <v>0</v>
@@ -2049,24 +2631,36 @@
       <c r="D97">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="1:4">
+      <c r="E97">
+        <v>0</v>
+      </c>
+      <c r="F97">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="1:6">
       <c r="A98" s="1" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="B98">
-        <v>-0.1955961911279889</v>
+        <v>0.1884320747892741</v>
       </c>
       <c r="C98">
-        <v>0.01511828493078944</v>
+        <v>0.04143620524774862</v>
       </c>
       <c r="D98">
-        <v>-0.04453898448074888</v>
-      </c>
-    </row>
-    <row r="99" spans="1:4">
+        <v>0.172948846650029</v>
+      </c>
+      <c r="E98">
+        <v>0.1599917908887369</v>
+      </c>
+      <c r="F98">
+        <v>0.04022018092007015</v>
+      </c>
+    </row>
+    <row r="99" spans="1:6">
       <c r="A99" s="1" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="B99">
         <v>0</v>
@@ -2077,10 +2671,16 @@
       <c r="D99">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="1:4">
+      <c r="E99">
+        <v>0</v>
+      </c>
+      <c r="F99">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="1:6">
       <c r="A100" s="1" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="B100">
         <v>0</v>
@@ -2091,38 +2691,56 @@
       <c r="D100">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="1:4">
+      <c r="E100">
+        <v>0</v>
+      </c>
+      <c r="F100">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="1:6">
       <c r="A101" s="1" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="B101">
-        <v>-0.008230100958742232</v>
+        <v>0.006265639723458231</v>
       </c>
       <c r="C101">
-        <v>0.0258343474203627</v>
+        <v>0.02522266046239787</v>
       </c>
       <c r="D101">
-        <v>0.01471308704419917</v>
-      </c>
-    </row>
-    <row r="102" spans="1:4">
+        <v>0.0241616598988116</v>
+      </c>
+      <c r="E101">
+        <v>-0.03032728063139004</v>
+      </c>
+      <c r="F101">
+        <v>-0.08895402420490016</v>
+      </c>
+    </row>
+    <row r="102" spans="1:6">
       <c r="A102" s="1" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="B102">
-        <v>-0.1189332826146303</v>
+        <v>0.1222175266199247</v>
       </c>
       <c r="C102">
-        <v>0.07496327833871023</v>
+        <v>0.1012514749781384</v>
       </c>
       <c r="D102">
-        <v>0.0318134524374276</v>
-      </c>
-    </row>
-    <row r="103" spans="1:4">
+        <v>-0.05163299166224405</v>
+      </c>
+      <c r="E102">
+        <v>0.007780025798702858</v>
+      </c>
+      <c r="F102">
+        <v>-0.03901112964929498</v>
+      </c>
+    </row>
+    <row r="103" spans="1:6">
       <c r="A103" s="1" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="B103">
         <v>0</v>
@@ -2133,10 +2751,16 @@
       <c r="D103">
         <v>0</v>
       </c>
-    </row>
-    <row r="104" spans="1:4">
+      <c r="E103">
+        <v>0</v>
+      </c>
+      <c r="F103">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="104" spans="1:6">
       <c r="A104" s="1" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="B104">
         <v>0</v>
@@ -2145,6 +2769,12 @@
         <v>0</v>
       </c>
       <c r="D104">
+        <v>0</v>
+      </c>
+      <c r="E104">
+        <v>0</v>
+      </c>
+      <c r="F104">
         <v>0</v>
       </c>
     </row>
